--- a/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2721E16-8CD9-417B-988C-587FE8E50E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE0DD8-DDCD-43BE-8591-675E81C7E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2773,18 +2773,6 @@
     <t>-4,0.00,-4</t>
   </si>
   <si>
-    <t>2;-9,0,-3;70010404;1,2</t>
-  </si>
-  <si>
-    <t>2;-9,0,-3.5;70010403;1,2</t>
-  </si>
-  <si>
-    <t>2;6,0,3.5;70010402;1,2</t>
-  </si>
-  <si>
-    <t>2;6,0,-3;70010402;1,2</t>
-  </si>
-  <si>
     <t>-8,0,2</t>
   </si>
   <si>
@@ -3466,6 +3454,22 @@
   </si>
   <si>
     <t>540601,540602,540603</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8,0,4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.5,0,-4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,0,3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8,0,-3.5</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -4309,7 +4313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4367,6 +4371,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -4770,9 +4777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1095" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1113" sqref="G1113"/>
+      <selection pane="topRight" activeCell="F882" sqref="F882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29120,8 +29127,8 @@
       <c r="E879" s="1">
         <v>2</v>
       </c>
-      <c r="F879" s="1" t="s">
-        <v>895</v>
+      <c r="F879" s="22" t="s">
+        <v>1122</v>
       </c>
       <c r="G879" s="1">
         <v>401001</v>
@@ -29147,8 +29154,8 @@
       <c r="E880" s="1">
         <v>2</v>
       </c>
-      <c r="F880" s="1" t="s">
-        <v>896</v>
+      <c r="F880" s="22" t="s">
+        <v>1123</v>
       </c>
       <c r="G880" s="1">
         <v>401001</v>
@@ -29174,8 +29181,8 @@
       <c r="E881" s="1">
         <v>2</v>
       </c>
-      <c r="F881" s="1" t="s">
-        <v>897</v>
+      <c r="F881" s="22" t="s">
+        <v>1124</v>
       </c>
       <c r="G881" s="1">
         <v>401002</v>
@@ -29200,8 +29207,8 @@
       <c r="E882" s="1">
         <v>2</v>
       </c>
-      <c r="F882" s="1" t="s">
-        <v>898</v>
+      <c r="F882" s="22" t="s">
+        <v>1125</v>
       </c>
       <c r="G882" s="1">
         <v>401002</v>
@@ -29228,7 +29235,7 @@
         <v>2</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G883" s="1">
         <v>401001</v>
@@ -29255,7 +29262,7 @@
         <v>2</v>
       </c>
       <c r="F884" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G884" s="1">
         <v>401001</v>
@@ -29282,7 +29289,7 @@
         <v>2</v>
       </c>
       <c r="F885" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="G885" s="1">
         <v>401002</v>
@@ -29309,7 +29316,7 @@
         <v>2</v>
       </c>
       <c r="F886" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G886" s="1">
         <v>401002</v>
@@ -29335,7 +29342,7 @@
         <v>2</v>
       </c>
       <c r="F887" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H887" s="1">
         <v>1</v>
@@ -29359,7 +29366,7 @@
         <v>2</v>
       </c>
       <c r="F888" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G888" s="1">
         <v>401002</v>
@@ -29386,7 +29393,7 @@
         <v>2</v>
       </c>
       <c r="F889" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G889" s="1">
         <v>401003</v>
@@ -29413,7 +29420,7 @@
         <v>2</v>
       </c>
       <c r="F890" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G890" s="1">
         <v>401002</v>
@@ -29440,7 +29447,7 @@
         <v>2</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G891" s="1">
         <v>401003</v>
@@ -29466,7 +29473,7 @@
         <v>2</v>
       </c>
       <c r="F892" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G892" s="1">
         <v>401003</v>
@@ -29493,7 +29500,7 @@
         <v>2</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G893" s="1">
         <v>401003</v>
@@ -29520,7 +29527,7 @@
         <v>2</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G894" s="1">
         <v>401004</v>
@@ -29547,7 +29554,7 @@
         <v>2</v>
       </c>
       <c r="F895" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G895" s="1">
         <v>401003</v>
@@ -29574,7 +29581,7 @@
         <v>2</v>
       </c>
       <c r="F896" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G896" s="1">
         <v>401004</v>
@@ -29601,7 +29608,7 @@
         <v>2</v>
       </c>
       <c r="F897" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G897" s="1">
         <v>401003</v>
@@ -29627,7 +29634,7 @@
         <v>2</v>
       </c>
       <c r="F898" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G898" s="1">
         <v>401004</v>
@@ -29654,7 +29661,7 @@
         <v>2</v>
       </c>
       <c r="F899" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G899" s="1">
         <v>401065</v>
@@ -29681,7 +29688,7 @@
         <v>2</v>
       </c>
       <c r="F900" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G900" s="1">
         <v>401003</v>
@@ -29707,7 +29714,7 @@
         <v>2</v>
       </c>
       <c r="F901" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G901" s="1">
         <v>401004</v>
@@ -29734,7 +29741,7 @@
         <v>2</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G902" s="1">
         <v>401003</v>
@@ -29761,7 +29768,7 @@
         <v>2</v>
       </c>
       <c r="F903" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G903" s="1">
         <v>401002</v>
@@ -29788,7 +29795,7 @@
         <v>2</v>
       </c>
       <c r="F904" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G904" s="1">
         <v>401003</v>
@@ -29814,7 +29821,7 @@
         <v>2</v>
       </c>
       <c r="F905" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G905" s="1">
         <v>401003</v>
@@ -29840,7 +29847,7 @@
         <v>2</v>
       </c>
       <c r="F906" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G906" s="1">
         <v>402001</v>
@@ -29866,7 +29873,7 @@
         <v>2</v>
       </c>
       <c r="F907" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G907" s="1">
         <v>402002</v>
@@ -29892,7 +29899,7 @@
         <v>2</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G908" s="1">
         <v>402001</v>
@@ -29918,7 +29925,7 @@
         <v>2</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G909" s="1">
         <v>402002</v>
@@ -29944,7 +29951,7 @@
         <v>2</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G910" s="1">
         <v>402002</v>
@@ -29970,7 +29977,7 @@
         <v>2</v>
       </c>
       <c r="F911" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G911" s="1">
         <v>402001</v>
@@ -29996,7 +30003,7 @@
         <v>2</v>
       </c>
       <c r="F912" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G912" s="1">
         <v>402001</v>
@@ -30022,7 +30029,7 @@
         <v>2</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G913" s="1">
         <v>402002</v>
@@ -30048,7 +30055,7 @@
         <v>2</v>
       </c>
       <c r="F914" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G914" s="1">
         <v>402002</v>
@@ -30074,7 +30081,7 @@
         <v>2</v>
       </c>
       <c r="F915" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G915" s="1">
         <v>402002</v>
@@ -30100,7 +30107,7 @@
         <v>2</v>
       </c>
       <c r="F916" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G916" s="1">
         <v>402003</v>
@@ -30126,7 +30133,7 @@
         <v>2</v>
       </c>
       <c r="F917" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G917" s="1">
         <v>402002</v>
@@ -30152,7 +30159,7 @@
         <v>2</v>
       </c>
       <c r="F918" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G918" s="1">
         <v>402003</v>
@@ -30178,7 +30185,7 @@
         <v>2</v>
       </c>
       <c r="F919" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G919" s="1">
         <v>402003</v>
@@ -30204,7 +30211,7 @@
         <v>2</v>
       </c>
       <c r="F920" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G920" s="1">
         <v>402004</v>
@@ -30231,7 +30238,7 @@
         <v>2</v>
       </c>
       <c r="F921" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G921" s="1">
         <v>402003</v>
@@ -30258,7 +30265,7 @@
         <v>2</v>
       </c>
       <c r="F922" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G922" s="1">
         <v>402004</v>
@@ -30285,7 +30292,7 @@
         <v>2</v>
       </c>
       <c r="F923" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G923" s="1">
         <v>402004</v>
@@ -30312,7 +30319,7 @@
         <v>2</v>
       </c>
       <c r="F924" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G924" s="1">
         <v>402003</v>
@@ -30339,7 +30346,7 @@
         <v>2</v>
       </c>
       <c r="F925" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G925" s="1">
         <v>402004</v>
@@ -30366,7 +30373,7 @@
         <v>2</v>
       </c>
       <c r="F926" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G926" s="1">
         <v>402003</v>
@@ -30393,7 +30400,7 @@
         <v>2</v>
       </c>
       <c r="F927" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G927" s="1">
         <v>402004</v>
@@ -30420,7 +30427,7 @@
         <v>2</v>
       </c>
       <c r="F928" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G928" s="1">
         <v>402065</v>
@@ -30447,7 +30454,7 @@
         <v>2</v>
       </c>
       <c r="F929" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G929" s="1">
         <v>402002</v>
@@ -30474,7 +30481,7 @@
         <v>2</v>
       </c>
       <c r="F930" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G930" s="1">
         <v>402003</v>
@@ -30501,7 +30508,7 @@
         <v>2</v>
       </c>
       <c r="F931" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G931" s="1">
         <v>402002</v>
@@ -30528,7 +30535,7 @@
         <v>2</v>
       </c>
       <c r="F932" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="G932" s="1">
         <v>402003</v>
@@ -30555,7 +30562,7 @@
         <v>2</v>
       </c>
       <c r="F933" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G933" s="1">
         <v>403001</v>
@@ -30582,7 +30589,7 @@
         <v>2</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="G934" s="1">
         <v>403002</v>
@@ -30609,7 +30616,7 @@
         <v>2</v>
       </c>
       <c r="F935" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G935" s="1">
         <v>403001</v>
@@ -30636,7 +30643,7 @@
         <v>2</v>
       </c>
       <c r="F936" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G936" s="1">
         <v>403002</v>
@@ -30663,7 +30670,7 @@
         <v>2</v>
       </c>
       <c r="F937" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G937" s="1">
         <v>403001</v>
@@ -30690,7 +30697,7 @@
         <v>2</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G938" s="1">
         <v>403002</v>
@@ -30717,7 +30724,7 @@
         <v>2</v>
       </c>
       <c r="F939" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G939" s="1">
         <v>403001</v>
@@ -30744,7 +30751,7 @@
         <v>2</v>
       </c>
       <c r="F940" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G940" s="1">
         <v>403002</v>
@@ -30771,7 +30778,7 @@
         <v>2</v>
       </c>
       <c r="F941" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G941" s="1">
         <v>403001</v>
@@ -30798,7 +30805,7 @@
         <v>2</v>
       </c>
       <c r="F942" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G942" s="1">
         <v>403002</v>
@@ -30825,7 +30832,7 @@
         <v>2</v>
       </c>
       <c r="F943" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G943" s="1">
         <v>403002</v>
@@ -30852,7 +30859,7 @@
         <v>2</v>
       </c>
       <c r="F944" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G944" s="1">
         <v>403002</v>
@@ -30879,7 +30886,7 @@
         <v>2</v>
       </c>
       <c r="F945" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G945" s="1">
         <v>403003</v>
@@ -30906,7 +30913,7 @@
         <v>2</v>
       </c>
       <c r="F946" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G946" s="1">
         <v>403002</v>
@@ -30933,7 +30940,7 @@
         <v>2</v>
       </c>
       <c r="F947" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="G947" s="1">
         <v>403003</v>
@@ -30960,7 +30967,7 @@
         <v>2</v>
       </c>
       <c r="F948" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G948" s="1">
         <v>403003</v>
@@ -30987,7 +30994,7 @@
         <v>2</v>
       </c>
       <c r="F949" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G949" s="1">
         <v>403004</v>
@@ -31014,7 +31021,7 @@
         <v>2</v>
       </c>
       <c r="F950" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G950" s="1">
         <v>403003</v>
@@ -31041,7 +31048,7 @@
         <v>2</v>
       </c>
       <c r="F951" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G951" s="1">
         <v>403004</v>
@@ -31068,7 +31075,7 @@
         <v>2</v>
       </c>
       <c r="F952" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G952" s="1">
         <v>403003</v>
@@ -31095,7 +31102,7 @@
         <v>2</v>
       </c>
       <c r="F953" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G953" s="1">
         <v>403004</v>
@@ -31122,7 +31129,7 @@
         <v>2</v>
       </c>
       <c r="F954" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G954" s="1">
         <v>403065</v>
@@ -31149,7 +31156,7 @@
         <v>2</v>
       </c>
       <c r="F955" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G955" s="1">
         <v>403002</v>
@@ -31176,7 +31183,7 @@
         <v>2</v>
       </c>
       <c r="F956" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="G956" s="1">
         <v>403003</v>
@@ -31203,7 +31210,7 @@
         <v>2</v>
       </c>
       <c r="F957" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G957" s="1">
         <v>403002</v>
@@ -31230,7 +31237,7 @@
         <v>2</v>
       </c>
       <c r="F958" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="G958" s="1">
         <v>403003</v>
@@ -31257,7 +31264,7 @@
         <v>2</v>
       </c>
       <c r="F959" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G959" s="1">
         <v>404001</v>
@@ -31284,7 +31291,7 @@
         <v>2</v>
       </c>
       <c r="F960" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G960" s="1">
         <v>404002</v>
@@ -31311,7 +31318,7 @@
         <v>2</v>
       </c>
       <c r="F961" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G961" s="1">
         <v>404001</v>
@@ -31338,7 +31345,7 @@
         <v>2</v>
       </c>
       <c r="F962" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G962" s="1">
         <v>404002</v>
@@ -31365,7 +31372,7 @@
         <v>2</v>
       </c>
       <c r="F963" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G963" s="1">
         <v>404001</v>
@@ -31392,7 +31399,7 @@
         <v>2</v>
       </c>
       <c r="F964" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G964" s="1">
         <v>404002</v>
@@ -31419,7 +31426,7 @@
         <v>2</v>
       </c>
       <c r="F965" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G965" s="1">
         <v>404001</v>
@@ -31446,7 +31453,7 @@
         <v>2</v>
       </c>
       <c r="F966" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G966" s="1">
         <v>404002</v>
@@ -31473,7 +31480,7 @@
         <v>2</v>
       </c>
       <c r="F967" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G967" s="1">
         <v>404002</v>
@@ -31500,7 +31507,7 @@
         <v>2</v>
       </c>
       <c r="F968" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G968" s="1">
         <v>404002</v>
@@ -31527,7 +31534,7 @@
         <v>2</v>
       </c>
       <c r="F969" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="G969" s="1">
         <v>404003</v>
@@ -31554,7 +31561,7 @@
         <v>2</v>
       </c>
       <c r="F970" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G970" s="1">
         <v>404002</v>
@@ -31581,7 +31588,7 @@
         <v>2</v>
       </c>
       <c r="F971" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G971" s="1">
         <v>404003</v>
@@ -31608,7 +31615,7 @@
         <v>2</v>
       </c>
       <c r="F972" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G972" s="1">
         <v>404003</v>
@@ -31635,7 +31642,7 @@
         <v>2</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="G973" s="1">
         <v>404003</v>
@@ -31662,7 +31669,7 @@
         <v>2</v>
       </c>
       <c r="F974" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G974" s="1">
         <v>404004</v>
@@ -31689,7 +31696,7 @@
         <v>2</v>
       </c>
       <c r="F975" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G975" s="1">
         <v>404003</v>
@@ -31716,7 +31723,7 @@
         <v>2</v>
       </c>
       <c r="F976" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G976" s="1">
         <v>404004</v>
@@ -31743,7 +31750,7 @@
         <v>2</v>
       </c>
       <c r="F977" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G977" s="1">
         <v>404003</v>
@@ -31770,7 +31777,7 @@
         <v>2</v>
       </c>
       <c r="F978" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G978" s="1">
         <v>404004</v>
@@ -31797,7 +31804,7 @@
         <v>2</v>
       </c>
       <c r="F979" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G979" s="1">
         <v>404003</v>
@@ -31824,7 +31831,7 @@
         <v>2</v>
       </c>
       <c r="F980" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G980" s="1">
         <v>404004</v>
@@ -31851,7 +31858,7 @@
         <v>2</v>
       </c>
       <c r="F981" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="G981" s="1">
         <v>404065</v>
@@ -31878,7 +31885,7 @@
         <v>2</v>
       </c>
       <c r="F982" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G982" s="1">
         <v>404002</v>
@@ -31905,7 +31912,7 @@
         <v>2</v>
       </c>
       <c r="F983" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G983" s="1">
         <v>404003</v>
@@ -31932,7 +31939,7 @@
         <v>2</v>
       </c>
       <c r="F984" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G984" s="1">
         <v>404002</v>
@@ -31959,7 +31966,7 @@
         <v>2</v>
       </c>
       <c r="F985" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="G985" s="1">
         <v>404003</v>
@@ -31986,7 +31993,7 @@
         <v>2</v>
       </c>
       <c r="F986" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G986" s="1">
         <v>404002</v>
@@ -32013,7 +32020,7 @@
         <v>2</v>
       </c>
       <c r="F987" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="G987" s="1">
         <v>404003</v>
@@ -32040,7 +32047,7 @@
         <v>2</v>
       </c>
       <c r="F988" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G988" s="1">
         <v>404002</v>
@@ -32067,7 +32074,7 @@
         <v>2</v>
       </c>
       <c r="F989" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G989" s="1">
         <v>405001</v>
@@ -32094,7 +32101,7 @@
         <v>2</v>
       </c>
       <c r="F990" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G990" s="1">
         <v>405002</v>
@@ -32121,7 +32128,7 @@
         <v>2</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="G991" s="1">
         <v>405001</v>
@@ -32148,7 +32155,7 @@
         <v>2</v>
       </c>
       <c r="F992" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G992" s="1">
         <v>405002</v>
@@ -32175,7 +32182,7 @@
         <v>2</v>
       </c>
       <c r="F993" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G993" s="1">
         <v>405001</v>
@@ -32202,7 +32209,7 @@
         <v>2</v>
       </c>
       <c r="F994" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G994" s="1">
         <v>405002</v>
@@ -32229,7 +32236,7 @@
         <v>2</v>
       </c>
       <c r="F995" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G995" s="1">
         <v>405001</v>
@@ -32256,7 +32263,7 @@
         <v>2</v>
       </c>
       <c r="F996" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G996" s="1">
         <v>405002</v>
@@ -32283,7 +32290,7 @@
         <v>2</v>
       </c>
       <c r="F997" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G997" s="1">
         <v>405002</v>
@@ -32310,7 +32317,7 @@
         <v>2</v>
       </c>
       <c r="F998" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G998" s="1">
         <v>405001</v>
@@ -32337,7 +32344,7 @@
         <v>2</v>
       </c>
       <c r="F999" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G999" s="1">
         <v>405002</v>
@@ -32364,7 +32371,7 @@
         <v>2</v>
       </c>
       <c r="F1000" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G1000" s="1">
         <v>405001</v>
@@ -32391,7 +32398,7 @@
         <v>2</v>
       </c>
       <c r="F1001" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G1001" s="1">
         <v>405002</v>
@@ -32418,7 +32425,7 @@
         <v>2</v>
       </c>
       <c r="F1002" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="G1002" s="1">
         <v>405002</v>
@@ -32445,7 +32452,7 @@
         <v>2</v>
       </c>
       <c r="F1003" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G1003" s="1">
         <v>405002</v>
@@ -32472,7 +32479,7 @@
         <v>2</v>
       </c>
       <c r="F1004" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G1004" s="1">
         <v>405003</v>
@@ -32499,7 +32506,7 @@
         <v>2</v>
       </c>
       <c r="F1005" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G1005" s="1">
         <v>405002</v>
@@ -32526,7 +32533,7 @@
         <v>2</v>
       </c>
       <c r="F1006" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G1006" s="1">
         <v>405003</v>
@@ -32553,7 +32560,7 @@
         <v>2</v>
       </c>
       <c r="F1007" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G1007" s="1">
         <v>405002</v>
@@ -32580,7 +32587,7 @@
         <v>2</v>
       </c>
       <c r="F1008" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G1008" s="1">
         <v>405003</v>
@@ -32607,7 +32614,7 @@
         <v>2</v>
       </c>
       <c r="F1009" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G1009" s="1">
         <v>405003</v>
@@ -32634,7 +32641,7 @@
         <v>2</v>
       </c>
       <c r="F1010" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G1010" s="1">
         <v>405004</v>
@@ -32661,7 +32668,7 @@
         <v>2</v>
       </c>
       <c r="F1011" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G1011" s="1">
         <v>405003</v>
@@ -32688,7 +32695,7 @@
         <v>2</v>
       </c>
       <c r="F1012" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G1012" s="1">
         <v>405004</v>
@@ -32715,7 +32722,7 @@
         <v>2</v>
       </c>
       <c r="F1013" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G1013" s="1">
         <v>405003</v>
@@ -32742,7 +32749,7 @@
         <v>2</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G1014" s="1">
         <v>405004</v>
@@ -32769,7 +32776,7 @@
         <v>2</v>
       </c>
       <c r="F1015" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G1015" s="1">
         <v>405003</v>
@@ -32796,7 +32803,7 @@
         <v>2</v>
       </c>
       <c r="F1016" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G1016" s="1">
         <v>405004</v>
@@ -32823,7 +32830,7 @@
         <v>2</v>
       </c>
       <c r="F1017" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G1017" s="1">
         <v>405003</v>
@@ -32850,7 +32857,7 @@
         <v>2</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G1018" s="1">
         <v>405004</v>
@@ -32877,7 +32884,7 @@
         <v>2</v>
       </c>
       <c r="F1019" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G1019" s="1">
         <v>405004</v>
@@ -32904,7 +32911,7 @@
         <v>2</v>
       </c>
       <c r="F1020" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G1020" s="1">
         <v>405065</v>
@@ -32931,7 +32938,7 @@
         <v>2</v>
       </c>
       <c r="F1021" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G1021" s="1">
         <v>405002</v>
@@ -32958,7 +32965,7 @@
         <v>2</v>
       </c>
       <c r="F1022" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G1022" s="1">
         <v>405003</v>
@@ -32985,7 +32992,7 @@
         <v>2</v>
       </c>
       <c r="F1023" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="G1023" s="1">
         <v>405002</v>
@@ -33012,7 +33019,7 @@
         <v>2</v>
       </c>
       <c r="F1024" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G1024" s="1">
         <v>405003</v>
@@ -33039,7 +33046,7 @@
         <v>2</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G1025" s="1">
         <v>405002</v>
@@ -33066,7 +33073,7 @@
         <v>2</v>
       </c>
       <c r="F1026" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G1026" s="1">
         <v>405003</v>
@@ -33093,10 +33100,10 @@
         <v>7</v>
       </c>
       <c r="F1027" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1027" s="5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H1027" s="1">
         <v>0</v>
@@ -33108,7 +33115,7 @@
         <v>270</v>
       </c>
       <c r="K1027" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1028" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33122,10 +33129,10 @@
         <v>7</v>
       </c>
       <c r="F1028" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1028" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H1028" s="1">
         <v>0</v>
@@ -33137,7 +33144,7 @@
         <v>270</v>
       </c>
       <c r="K1028" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1029" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33151,10 +33158,10 @@
         <v>7</v>
       </c>
       <c r="F1029" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G1029" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="G1029" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="H1029" s="1">
         <v>0</v>
@@ -33166,7 +33173,7 @@
         <v>270</v>
       </c>
       <c r="K1029" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1030" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33180,10 +33187,10 @@
         <v>7</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1030" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H1030" s="1">
         <v>0</v>
@@ -33195,7 +33202,7 @@
         <v>270</v>
       </c>
       <c r="K1030" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1031" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33210,7 +33217,7 @@
         <v>7</v>
       </c>
       <c r="F1031" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1031" s="5" t="str">
         <f>G1029</f>
@@ -33226,7 +33233,7 @@
         <v>270</v>
       </c>
       <c r="K1031" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1032" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33240,10 +33247,10 @@
         <v>7</v>
       </c>
       <c r="F1032" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1032" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="H1032" s="1">
         <v>0</v>
@@ -33255,7 +33262,7 @@
         <v>270</v>
       </c>
       <c r="K1032" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1033" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33269,10 +33276,10 @@
         <v>7</v>
       </c>
       <c r="F1033" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1033" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H1033" s="1">
         <v>0</v>
@@ -33284,7 +33291,7 @@
         <v>270</v>
       </c>
       <c r="K1033" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1034" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33298,10 +33305,10 @@
         <v>7</v>
       </c>
       <c r="F1034" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1034" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H1034" s="1">
         <v>0</v>
@@ -33313,7 +33320,7 @@
         <v>270</v>
       </c>
       <c r="K1034" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1035" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33327,10 +33334,10 @@
         <v>7</v>
       </c>
       <c r="F1035" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1035" s="5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="H1035" s="1">
         <v>0</v>
@@ -33342,7 +33349,7 @@
         <v>270</v>
       </c>
       <c r="K1035" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1036" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33357,7 +33364,7 @@
         <v>7</v>
       </c>
       <c r="F1036" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1036" s="5" t="str">
         <f>G1034</f>
@@ -33373,7 +33380,7 @@
         <v>270</v>
       </c>
       <c r="K1036" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1037" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33387,10 +33394,10 @@
         <v>7</v>
       </c>
       <c r="F1037" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1037" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H1037" s="1">
         <v>0</v>
@@ -33402,7 +33409,7 @@
         <v>270</v>
       </c>
       <c r="K1037" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1038" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33416,10 +33423,10 @@
         <v>7</v>
       </c>
       <c r="F1038" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1038" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H1038" s="1">
         <v>0</v>
@@ -33431,7 +33438,7 @@
         <v>270</v>
       </c>
       <c r="K1038" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1039" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33445,10 +33452,10 @@
         <v>7</v>
       </c>
       <c r="F1039" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1039" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H1039" s="1">
         <v>0</v>
@@ -33460,7 +33467,7 @@
         <v>270</v>
       </c>
       <c r="K1039" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1040" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33474,10 +33481,10 @@
         <v>7</v>
       </c>
       <c r="F1040" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1040" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H1040" s="1">
         <v>0</v>
@@ -33489,7 +33496,7 @@
         <v>270</v>
       </c>
       <c r="K1040" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1041" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33504,7 +33511,7 @@
         <v>7</v>
       </c>
       <c r="F1041" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1041" s="5" t="str">
         <f>G1039</f>
@@ -33520,7 +33527,7 @@
         <v>270</v>
       </c>
       <c r="K1041" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1042" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33534,10 +33541,10 @@
         <v>7</v>
       </c>
       <c r="F1042" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1042" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="H1042" s="1">
         <v>0</v>
@@ -33549,7 +33556,7 @@
         <v>270</v>
       </c>
       <c r="K1042" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1043" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33563,10 +33570,10 @@
         <v>7</v>
       </c>
       <c r="F1043" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1043" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H1043" s="1">
         <v>0</v>
@@ -33578,7 +33585,7 @@
         <v>270</v>
       </c>
       <c r="K1043" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1044" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33592,10 +33599,10 @@
         <v>7</v>
       </c>
       <c r="F1044" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1044" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H1044" s="1">
         <v>0</v>
@@ -33607,7 +33614,7 @@
         <v>270</v>
       </c>
       <c r="K1044" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1045" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33621,10 +33628,10 @@
         <v>7</v>
       </c>
       <c r="F1045" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1045" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="H1045" s="1">
         <v>0</v>
@@ -33636,7 +33643,7 @@
         <v>270</v>
       </c>
       <c r="K1045" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1046" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33651,7 +33658,7 @@
         <v>7</v>
       </c>
       <c r="F1046" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1046" s="5" t="str">
         <f>G1044</f>
@@ -33667,7 +33674,7 @@
         <v>270</v>
       </c>
       <c r="K1046" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1047" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33681,10 +33688,10 @@
         <v>7</v>
       </c>
       <c r="F1047" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1047" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H1047" s="1">
         <v>0</v>
@@ -33696,7 +33703,7 @@
         <v>270</v>
       </c>
       <c r="K1047" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1048" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33710,10 +33717,10 @@
         <v>7</v>
       </c>
       <c r="F1048" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1048" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="H1048" s="1">
         <v>0</v>
@@ -33725,7 +33732,7 @@
         <v>270</v>
       </c>
       <c r="K1048" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1049" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33739,10 +33746,10 @@
         <v>7</v>
       </c>
       <c r="F1049" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1049" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H1049" s="1">
         <v>0</v>
@@ -33754,7 +33761,7 @@
         <v>270</v>
       </c>
       <c r="K1049" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1050" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33768,10 +33775,10 @@
         <v>7</v>
       </c>
       <c r="F1050" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1050" s="5" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="H1050" s="1">
         <v>0</v>
@@ -33783,7 +33790,7 @@
         <v>270</v>
       </c>
       <c r="K1050" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1051" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33798,7 +33805,7 @@
         <v>7</v>
       </c>
       <c r="F1051" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1051" s="5" t="str">
         <f>G1049</f>
@@ -33814,7 +33821,7 @@
         <v>270</v>
       </c>
       <c r="K1051" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1052" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33828,7 +33835,7 @@
         <v>7</v>
       </c>
       <c r="F1052" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1052" s="15">
         <v>520101</v>
@@ -33843,7 +33850,7 @@
         <v>270</v>
       </c>
       <c r="K1052" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1053" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33857,10 +33864,10 @@
         <v>7</v>
       </c>
       <c r="F1053" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1053" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="H1053" s="1">
         <v>0</v>
@@ -33872,7 +33879,7 @@
         <v>270</v>
       </c>
       <c r="K1053" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1054" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33886,10 +33893,10 @@
         <v>7</v>
       </c>
       <c r="F1054" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1054" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="H1054" s="1">
         <v>0</v>
@@ -33901,7 +33908,7 @@
         <v>270</v>
       </c>
       <c r="K1054" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1055" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33915,10 +33922,10 @@
         <v>7</v>
       </c>
       <c r="F1055" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1055" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="H1055" s="1">
         <v>0</v>
@@ -33930,7 +33937,7 @@
         <v>270</v>
       </c>
       <c r="K1055" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1056" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33945,7 +33952,7 @@
         <v>7</v>
       </c>
       <c r="F1056" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1056" s="5" t="str">
         <f>G1054</f>
@@ -33961,7 +33968,7 @@
         <v>270</v>
       </c>
       <c r="K1056" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1057" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -33975,10 +33982,10 @@
         <v>7</v>
       </c>
       <c r="F1057" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1057" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="H1057" s="1">
         <v>0</v>
@@ -33990,7 +33997,7 @@
         <v>270</v>
       </c>
       <c r="K1057" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1058" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34004,10 +34011,10 @@
         <v>7</v>
       </c>
       <c r="F1058" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1058" s="5" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="H1058" s="1">
         <v>0</v>
@@ -34019,7 +34026,7 @@
         <v>270</v>
       </c>
       <c r="K1058" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1059" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34033,10 +34040,10 @@
         <v>7</v>
       </c>
       <c r="F1059" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1059" s="5" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="H1059" s="1">
         <v>0</v>
@@ -34048,7 +34055,7 @@
         <v>270</v>
       </c>
       <c r="K1059" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1060" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34062,10 +34069,10 @@
         <v>7</v>
       </c>
       <c r="F1060" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1060" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="H1060" s="1">
         <v>0</v>
@@ -34077,7 +34084,7 @@
         <v>270</v>
       </c>
       <c r="K1060" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1061" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34092,7 +34099,7 @@
         <v>7</v>
       </c>
       <c r="F1061" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1061" s="5" t="str">
         <f>G1059</f>
@@ -34108,7 +34115,7 @@
         <v>270</v>
       </c>
       <c r="K1061" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1062" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34122,10 +34129,10 @@
         <v>7</v>
       </c>
       <c r="F1062" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1062" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="H1062" s="1">
         <v>0</v>
@@ -34137,7 +34144,7 @@
         <v>270</v>
       </c>
       <c r="K1062" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1063" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34151,10 +34158,10 @@
         <v>7</v>
       </c>
       <c r="F1063" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1063" s="5" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="H1063" s="1">
         <v>0</v>
@@ -34166,7 +34173,7 @@
         <v>270</v>
       </c>
       <c r="K1063" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1064" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34180,10 +34187,10 @@
         <v>7</v>
       </c>
       <c r="F1064" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1064" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="H1064" s="1">
         <v>0</v>
@@ -34195,7 +34202,7 @@
         <v>270</v>
       </c>
       <c r="K1064" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1065" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34209,10 +34216,10 @@
         <v>7</v>
       </c>
       <c r="F1065" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1065" s="5" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H1065" s="1">
         <v>0</v>
@@ -34224,7 +34231,7 @@
         <v>270</v>
       </c>
       <c r="K1065" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1066" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34239,7 +34246,7 @@
         <v>7</v>
       </c>
       <c r="F1066" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1066" s="5" t="str">
         <f>G1064</f>
@@ -34255,7 +34262,7 @@
         <v>270</v>
       </c>
       <c r="K1066" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1067" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34269,10 +34276,10 @@
         <v>7</v>
       </c>
       <c r="F1067" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1067" s="5" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="H1067" s="1">
         <v>0</v>
@@ -34284,7 +34291,7 @@
         <v>270</v>
       </c>
       <c r="K1067" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1068" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34298,10 +34305,10 @@
         <v>7</v>
       </c>
       <c r="F1068" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1068" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="H1068" s="1">
         <v>0</v>
@@ -34313,7 +34320,7 @@
         <v>270</v>
       </c>
       <c r="K1068" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1069" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34327,10 +34334,10 @@
         <v>7</v>
       </c>
       <c r="F1069" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1069" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="H1069" s="1">
         <v>0</v>
@@ -34342,7 +34349,7 @@
         <v>270</v>
       </c>
       <c r="K1069" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1070" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34356,10 +34363,10 @@
         <v>7</v>
       </c>
       <c r="F1070" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1070" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="H1070" s="1">
         <v>0</v>
@@ -34371,7 +34378,7 @@
         <v>270</v>
       </c>
       <c r="K1070" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1071" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34386,7 +34393,7 @@
         <v>7</v>
       </c>
       <c r="F1071" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1071" s="5" t="str">
         <f>G1069</f>
@@ -34402,7 +34409,7 @@
         <v>270</v>
       </c>
       <c r="K1071" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1072" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34416,10 +34423,10 @@
         <v>7</v>
       </c>
       <c r="F1072" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1072" s="5" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="H1072" s="1">
         <v>0</v>
@@ -34431,7 +34438,7 @@
         <v>270</v>
       </c>
       <c r="K1072" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1073" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34445,10 +34452,10 @@
         <v>7</v>
       </c>
       <c r="F1073" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1073" s="5" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="H1073" s="1">
         <v>0</v>
@@ -34460,7 +34467,7 @@
         <v>270</v>
       </c>
       <c r="K1073" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1074" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34474,10 +34481,10 @@
         <v>7</v>
       </c>
       <c r="F1074" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1074" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="H1074" s="1">
         <v>0</v>
@@ -34489,7 +34496,7 @@
         <v>270</v>
       </c>
       <c r="K1074" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1075" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34503,10 +34510,10 @@
         <v>7</v>
       </c>
       <c r="F1075" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1075" s="5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="H1075" s="1">
         <v>0</v>
@@ -34518,7 +34525,7 @@
         <v>270</v>
       </c>
       <c r="K1075" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1076" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34533,7 +34540,7 @@
         <v>7</v>
       </c>
       <c r="F1076" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1076" s="5" t="str">
         <f>G1074</f>
@@ -34549,7 +34556,7 @@
         <v>270</v>
       </c>
       <c r="K1076" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1077" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34563,7 +34570,7 @@
         <v>7</v>
       </c>
       <c r="F1077" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1077" s="15">
         <v>530101</v>
@@ -34578,7 +34585,7 @@
         <v>270</v>
       </c>
       <c r="K1077" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1078" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34592,10 +34599,10 @@
         <v>7</v>
       </c>
       <c r="F1078" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1078" s="21" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="H1078" s="1">
         <v>0</v>
@@ -34607,7 +34614,7 @@
         <v>270</v>
       </c>
       <c r="K1078" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1079" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34621,10 +34628,10 @@
         <v>7</v>
       </c>
       <c r="F1079" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1079" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="H1079" s="1">
         <v>0</v>
@@ -34636,7 +34643,7 @@
         <v>270</v>
       </c>
       <c r="K1079" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1080" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34650,10 +34657,10 @@
         <v>7</v>
       </c>
       <c r="F1080" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1080" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H1080" s="1">
         <v>0</v>
@@ -34665,7 +34672,7 @@
         <v>270</v>
       </c>
       <c r="K1080" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1081" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34680,7 +34687,7 @@
         <v>7</v>
       </c>
       <c r="F1081" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1081" s="5" t="str">
         <f>G1079</f>
@@ -34696,7 +34703,7 @@
         <v>270</v>
       </c>
       <c r="K1081" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1082" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34710,10 +34717,10 @@
         <v>7</v>
       </c>
       <c r="F1082" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1082" s="21" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H1082" s="1">
         <v>0</v>
@@ -34725,7 +34732,7 @@
         <v>270</v>
       </c>
       <c r="K1082" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1083" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34739,10 +34746,10 @@
         <v>7</v>
       </c>
       <c r="F1083" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1083" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H1083" s="1">
         <v>0</v>
@@ -34754,7 +34761,7 @@
         <v>270</v>
       </c>
       <c r="K1083" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1084" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34768,10 +34775,10 @@
         <v>7</v>
       </c>
       <c r="F1084" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1084" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H1084" s="1">
         <v>0</v>
@@ -34783,7 +34790,7 @@
         <v>270</v>
       </c>
       <c r="K1084" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1085" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34797,10 +34804,10 @@
         <v>7</v>
       </c>
       <c r="F1085" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1085" s="5" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="H1085" s="1">
         <v>0</v>
@@ -34812,7 +34819,7 @@
         <v>270</v>
       </c>
       <c r="K1085" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1086" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34827,7 +34834,7 @@
         <v>7</v>
       </c>
       <c r="F1086" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1086" s="5" t="str">
         <f>G1084</f>
@@ -34843,7 +34850,7 @@
         <v>270</v>
       </c>
       <c r="K1086" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1087" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34857,10 +34864,10 @@
         <v>7</v>
       </c>
       <c r="F1087" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1087" s="5" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="H1087" s="1">
         <v>0</v>
@@ -34872,7 +34879,7 @@
         <v>270</v>
       </c>
       <c r="K1087" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1088" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34886,10 +34893,10 @@
         <v>7</v>
       </c>
       <c r="F1088" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1088" s="5" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H1088" s="1">
         <v>0</v>
@@ -34901,7 +34908,7 @@
         <v>270</v>
       </c>
       <c r="K1088" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1089" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34915,10 +34922,10 @@
         <v>7</v>
       </c>
       <c r="F1089" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1089" s="5" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H1089" s="1">
         <v>0</v>
@@ -34930,7 +34937,7 @@
         <v>270</v>
       </c>
       <c r="K1089" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1090" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34944,10 +34951,10 @@
         <v>7</v>
       </c>
       <c r="F1090" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1090" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="H1090" s="1">
         <v>0</v>
@@ -34959,7 +34966,7 @@
         <v>270</v>
       </c>
       <c r="K1090" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1091" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -34974,7 +34981,7 @@
         <v>7</v>
       </c>
       <c r="F1091" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1091" s="5" t="str">
         <f>G1089</f>
@@ -34990,7 +34997,7 @@
         <v>270</v>
       </c>
       <c r="K1091" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1092" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35004,10 +35011,10 @@
         <v>7</v>
       </c>
       <c r="F1092" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1092" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="H1092" s="1">
         <v>0</v>
@@ -35019,7 +35026,7 @@
         <v>270</v>
       </c>
       <c r="K1092" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1093" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35033,10 +35040,10 @@
         <v>7</v>
       </c>
       <c r="F1093" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1093" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H1093" s="1">
         <v>0</v>
@@ -35048,7 +35055,7 @@
         <v>270</v>
       </c>
       <c r="K1093" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1094" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35062,10 +35069,10 @@
         <v>7</v>
       </c>
       <c r="F1094" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1094" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H1094" s="1">
         <v>0</v>
@@ -35077,7 +35084,7 @@
         <v>270</v>
       </c>
       <c r="K1094" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1095" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35091,10 +35098,10 @@
         <v>7</v>
       </c>
       <c r="F1095" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1095" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H1095" s="1">
         <v>0</v>
@@ -35106,7 +35113,7 @@
         <v>270</v>
       </c>
       <c r="K1095" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1096" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35121,7 +35128,7 @@
         <v>7</v>
       </c>
       <c r="F1096" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1096" s="5" t="str">
         <f>G1094</f>
@@ -35137,7 +35144,7 @@
         <v>270</v>
       </c>
       <c r="K1096" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1097" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35151,10 +35158,10 @@
         <v>7</v>
       </c>
       <c r="F1097" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1097" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H1097" s="1">
         <v>0</v>
@@ -35166,7 +35173,7 @@
         <v>270</v>
       </c>
       <c r="K1097" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1098" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35180,10 +35187,10 @@
         <v>7</v>
       </c>
       <c r="F1098" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1098" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H1098" s="1">
         <v>0</v>
@@ -35195,7 +35202,7 @@
         <v>270</v>
       </c>
       <c r="K1098" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1099" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35209,10 +35216,10 @@
         <v>7</v>
       </c>
       <c r="F1099" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1099" s="5" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="H1099" s="1">
         <v>0</v>
@@ -35224,7 +35231,7 @@
         <v>270</v>
       </c>
       <c r="K1099" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1100" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35238,10 +35245,10 @@
         <v>7</v>
       </c>
       <c r="F1100" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1100" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H1100" s="1">
         <v>0</v>
@@ -35253,7 +35260,7 @@
         <v>270</v>
       </c>
       <c r="K1100" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1101" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35268,7 +35275,7 @@
         <v>7</v>
       </c>
       <c r="F1101" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1101" s="5" t="str">
         <f>G1099</f>
@@ -35284,7 +35291,7 @@
         <v>270</v>
       </c>
       <c r="K1101" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1102" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35298,10 +35305,10 @@
         <v>7</v>
       </c>
       <c r="F1102" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1102" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H1102" s="1">
         <v>0</v>
@@ -35313,7 +35320,7 @@
         <v>270</v>
       </c>
       <c r="K1102" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1103" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35327,10 +35334,10 @@
         <v>7</v>
       </c>
       <c r="F1103" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1103" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="H1103" s="1">
         <v>0</v>
@@ -35342,7 +35349,7 @@
         <v>270</v>
       </c>
       <c r="K1103" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1104" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35356,10 +35363,10 @@
         <v>7</v>
       </c>
       <c r="F1104" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1104" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="H1104" s="1">
         <v>0</v>
@@ -35371,7 +35378,7 @@
         <v>270</v>
       </c>
       <c r="K1104" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1105" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35385,10 +35392,10 @@
         <v>7</v>
       </c>
       <c r="F1105" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1105" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="H1105" s="1">
         <v>0</v>
@@ -35400,7 +35407,7 @@
         <v>270</v>
       </c>
       <c r="K1105" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1106" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35415,7 +35422,7 @@
         <v>7</v>
       </c>
       <c r="F1106" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1106" s="5" t="str">
         <f>G1104</f>
@@ -35431,7 +35438,7 @@
         <v>270</v>
       </c>
       <c r="K1106" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1107" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35445,10 +35452,10 @@
         <v>7</v>
       </c>
       <c r="F1107" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1107" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="H1107" s="1">
         <v>0</v>
@@ -35460,7 +35467,7 @@
         <v>270</v>
       </c>
       <c r="K1107" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1108" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35474,10 +35481,10 @@
         <v>7</v>
       </c>
       <c r="F1108" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1108" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="H1108" s="1">
         <v>0</v>
@@ -35489,7 +35496,7 @@
         <v>270</v>
       </c>
       <c r="K1108" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1109" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35503,10 +35510,10 @@
         <v>7</v>
       </c>
       <c r="F1109" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1109" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H1109" s="1">
         <v>0</v>
@@ -35518,7 +35525,7 @@
         <v>270</v>
       </c>
       <c r="K1109" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1110" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35532,10 +35539,10 @@
         <v>7</v>
       </c>
       <c r="F1110" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1110" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H1110" s="1">
         <v>0</v>
@@ -35547,7 +35554,7 @@
         <v>270</v>
       </c>
       <c r="K1110" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1111" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35562,7 +35569,7 @@
         <v>7</v>
       </c>
       <c r="F1111" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1111" s="5" t="str">
         <f>G1109</f>
@@ -35578,7 +35585,7 @@
         <v>270</v>
       </c>
       <c r="K1111" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1112" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35592,10 +35599,10 @@
         <v>7</v>
       </c>
       <c r="F1112" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1112" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="H1112" s="1">
         <v>0</v>
@@ -35607,7 +35614,7 @@
         <v>270</v>
       </c>
       <c r="K1112" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1113" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35621,10 +35628,10 @@
         <v>7</v>
       </c>
       <c r="F1113" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1113" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="H1113" s="1">
         <v>0</v>
@@ -35636,7 +35643,7 @@
         <v>270</v>
       </c>
       <c r="K1113" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1114" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35650,10 +35657,10 @@
         <v>7</v>
       </c>
       <c r="F1114" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1114" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="H1114" s="1">
         <v>0</v>
@@ -35665,7 +35672,7 @@
         <v>270</v>
       </c>
       <c r="K1114" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1115" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35679,10 +35686,10 @@
         <v>7</v>
       </c>
       <c r="F1115" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1115" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="H1115" s="1">
         <v>0</v>
@@ -35694,7 +35701,7 @@
         <v>270</v>
       </c>
       <c r="K1115" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1116" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35709,7 +35716,7 @@
         <v>7</v>
       </c>
       <c r="F1116" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1116" s="5" t="str">
         <f>G1114</f>
@@ -35725,7 +35732,7 @@
         <v>270</v>
       </c>
       <c r="K1116" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1117" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35739,10 +35746,10 @@
         <v>7</v>
       </c>
       <c r="F1117" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1117" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="H1117" s="1">
         <v>0</v>
@@ -35754,7 +35761,7 @@
         <v>270</v>
       </c>
       <c r="K1117" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1118" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35768,10 +35775,10 @@
         <v>7</v>
       </c>
       <c r="F1118" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1118" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H1118" s="1">
         <v>0</v>
@@ -35783,7 +35790,7 @@
         <v>270</v>
       </c>
       <c r="K1118" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1119" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35797,10 +35804,10 @@
         <v>7</v>
       </c>
       <c r="F1119" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1119" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="H1119" s="1">
         <v>0</v>
@@ -35812,7 +35819,7 @@
         <v>270</v>
       </c>
       <c r="K1119" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1120" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35826,10 +35833,10 @@
         <v>7</v>
       </c>
       <c r="F1120" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1120" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H1120" s="1">
         <v>0</v>
@@ -35841,7 +35848,7 @@
         <v>270</v>
       </c>
       <c r="K1120" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1121" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35856,7 +35863,7 @@
         <v>7</v>
       </c>
       <c r="F1121" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1121" s="5" t="str">
         <f>G1119</f>
@@ -35872,7 +35879,7 @@
         <v>270</v>
       </c>
       <c r="K1121" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1122" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35886,10 +35893,10 @@
         <v>7</v>
       </c>
       <c r="F1122" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1122" s="5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="H1122" s="1">
         <v>0</v>
@@ -35901,7 +35908,7 @@
         <v>270</v>
       </c>
       <c r="K1122" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1123" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35915,10 +35922,10 @@
         <v>7</v>
       </c>
       <c r="F1123" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1123" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H1123" s="1">
         <v>0</v>
@@ -35930,7 +35937,7 @@
         <v>270</v>
       </c>
       <c r="K1123" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1124" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35944,10 +35951,10 @@
         <v>7</v>
       </c>
       <c r="F1124" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1124" s="5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H1124" s="1">
         <v>0</v>
@@ -35959,7 +35966,7 @@
         <v>270</v>
       </c>
       <c r="K1124" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1125" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -35973,10 +35980,10 @@
         <v>7</v>
       </c>
       <c r="F1125" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1125" s="5" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H1125" s="1">
         <v>0</v>
@@ -35988,7 +35995,7 @@
         <v>270</v>
       </c>
       <c r="K1125" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1126" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36003,7 +36010,7 @@
         <v>7</v>
       </c>
       <c r="F1126" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1126" s="5" t="str">
         <f>G1124</f>
@@ -36019,7 +36026,7 @@
         <v>270</v>
       </c>
       <c r="K1126" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1127" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36033,10 +36040,10 @@
         <v>7</v>
       </c>
       <c r="F1127" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1127" s="5" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="H1127" s="1">
         <v>0</v>
@@ -36048,7 +36055,7 @@
         <v>270</v>
       </c>
       <c r="K1127" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1128" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36062,10 +36069,10 @@
         <v>7</v>
       </c>
       <c r="F1128" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1128" s="19" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="H1128" s="1">
         <v>0</v>
@@ -36077,7 +36084,7 @@
         <v>270</v>
       </c>
       <c r="K1128" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1129" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36091,10 +36098,10 @@
         <v>7</v>
       </c>
       <c r="F1129" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1129" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="H1129" s="1">
         <v>0</v>
@@ -36106,7 +36113,7 @@
         <v>270</v>
       </c>
       <c r="K1129" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1130" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36120,10 +36127,10 @@
         <v>7</v>
       </c>
       <c r="F1130" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1130" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="H1130" s="1">
         <v>0</v>
@@ -36135,7 +36142,7 @@
         <v>270</v>
       </c>
       <c r="K1130" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1131" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36150,7 +36157,7 @@
         <v>7</v>
       </c>
       <c r="F1131" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1131" s="5" t="str">
         <f>G1129</f>
@@ -36166,7 +36173,7 @@
         <v>270</v>
       </c>
       <c r="K1131" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1132" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36180,10 +36187,10 @@
         <v>7</v>
       </c>
       <c r="F1132" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1132" s="19" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H1132" s="1">
         <v>0</v>
@@ -36195,7 +36202,7 @@
         <v>270</v>
       </c>
       <c r="K1132" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1133" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36209,10 +36216,10 @@
         <v>7</v>
       </c>
       <c r="F1133" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1133" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="H1133" s="1">
         <v>0</v>
@@ -36224,7 +36231,7 @@
         <v>270</v>
       </c>
       <c r="K1133" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1134" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36238,10 +36245,10 @@
         <v>7</v>
       </c>
       <c r="F1134" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1134" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="H1134" s="1">
         <v>0</v>
@@ -36253,7 +36260,7 @@
         <v>270</v>
       </c>
       <c r="K1134" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1135" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36267,10 +36274,10 @@
         <v>7</v>
       </c>
       <c r="F1135" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1135" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="H1135" s="1">
         <v>0</v>
@@ -36282,7 +36289,7 @@
         <v>270</v>
       </c>
       <c r="K1135" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1136" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36297,7 +36304,7 @@
         <v>7</v>
       </c>
       <c r="F1136" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1136" s="5" t="str">
         <f>G1134</f>
@@ -36313,7 +36320,7 @@
         <v>270</v>
       </c>
       <c r="K1136" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1137" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36327,10 +36334,10 @@
         <v>7</v>
       </c>
       <c r="F1137" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1137" s="5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="H1137" s="1">
         <v>0</v>
@@ -36342,7 +36349,7 @@
         <v>270</v>
       </c>
       <c r="K1137" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1138" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36356,10 +36363,10 @@
         <v>7</v>
       </c>
       <c r="F1138" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1138" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H1138" s="1">
         <v>0</v>
@@ -36371,7 +36378,7 @@
         <v>270</v>
       </c>
       <c r="K1138" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1139" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36385,10 +36392,10 @@
         <v>7</v>
       </c>
       <c r="F1139" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1139" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="H1139" s="1">
         <v>0</v>
@@ -36400,7 +36407,7 @@
         <v>270</v>
       </c>
       <c r="K1139" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1140" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36414,10 +36421,10 @@
         <v>7</v>
       </c>
       <c r="F1140" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1140" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H1140" s="1">
         <v>0</v>
@@ -36429,7 +36436,7 @@
         <v>270</v>
       </c>
       <c r="K1140" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1141" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36444,7 +36451,7 @@
         <v>7</v>
       </c>
       <c r="F1141" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1141" s="5" t="str">
         <f>G1139</f>
@@ -36460,7 +36467,7 @@
         <v>270</v>
       </c>
       <c r="K1141" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1142" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36474,10 +36481,10 @@
         <v>7</v>
       </c>
       <c r="F1142" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1142" s="5" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H1142" s="1">
         <v>0</v>
@@ -36489,7 +36496,7 @@
         <v>270</v>
       </c>
       <c r="K1142" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1143" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36503,10 +36510,10 @@
         <v>7</v>
       </c>
       <c r="F1143" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1143" s="19" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H1143" s="1">
         <v>0</v>
@@ -36518,7 +36525,7 @@
         <v>270</v>
       </c>
       <c r="K1143" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1144" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36532,10 +36539,10 @@
         <v>7</v>
       </c>
       <c r="F1144" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1144" s="5" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H1144" s="1">
         <v>0</v>
@@ -36547,7 +36554,7 @@
         <v>270</v>
       </c>
       <c r="K1144" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1145" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36561,10 +36568,10 @@
         <v>7</v>
       </c>
       <c r="F1145" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1145" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H1145" s="1">
         <v>0</v>
@@ -36576,7 +36583,7 @@
         <v>270</v>
       </c>
       <c r="K1145" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1146" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36591,7 +36598,7 @@
         <v>7</v>
       </c>
       <c r="F1146" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1146" s="5" t="str">
         <f>G1144</f>
@@ -36607,7 +36614,7 @@
         <v>270</v>
       </c>
       <c r="K1146" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1147" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36621,10 +36628,10 @@
         <v>7</v>
       </c>
       <c r="F1147" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1147" s="5" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H1147" s="1">
         <v>0</v>
@@ -36636,7 +36643,7 @@
         <v>270</v>
       </c>
       <c r="K1147" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1148" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36650,10 +36657,10 @@
         <v>7</v>
       </c>
       <c r="F1148" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1148" s="5" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="H1148" s="1">
         <v>0</v>
@@ -36665,7 +36672,7 @@
         <v>270</v>
       </c>
       <c r="K1148" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1149" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36679,10 +36686,10 @@
         <v>7</v>
       </c>
       <c r="F1149" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1149" s="5" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H1149" s="1">
         <v>0</v>
@@ -36694,7 +36701,7 @@
         <v>270</v>
       </c>
       <c r="K1149" s="19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1150" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36708,10 +36715,10 @@
         <v>7</v>
       </c>
       <c r="F1150" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1150" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H1150" s="1">
         <v>0</v>
@@ -36723,7 +36730,7 @@
         <v>270</v>
       </c>
       <c r="K1150" s="20" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1151" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -36738,7 +36745,7 @@
         <v>7</v>
       </c>
       <c r="F1151" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G1151" s="5" t="str">
         <f>G1149</f>
@@ -36754,7 +36761,7 @@
         <v>270</v>
       </c>
       <c r="K1151" s="19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1152" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
@@ -718,7 +718,7 @@
     <t>9.88,0,-32.37</t>
   </si>
   <si>
-    <t>1230,2030</t>
+    <t>1410,2030</t>
   </si>
   <si>
     <t>-22.10,0.00,20.60</t>
@@ -5291,7 +5291,7 @@
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K199" sqref="K199"/>
+      <selection pane="topRight" activeCell="A197" sqref="$A197:$XFD197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB124F-A81B-49DC-AF4B-C1DD85863785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F4381-BDBA-44C6-A481-597E8ABA109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4840,9 +4840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K1243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F950" sqref="F950"/>
+      <selection pane="topRight" activeCell="F936" sqref="F936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29752,8 +29752,8 @@
       <c r="C900" s="25">
         <v>110101</v>
       </c>
-      <c r="D900" s="13">
-        <v>0</v>
+      <c r="D900" s="25">
+        <v>110102</v>
       </c>
       <c r="E900" s="14">
         <v>1</v>
@@ -29779,8 +29779,8 @@
       <c r="C901" s="25">
         <v>110102</v>
       </c>
-      <c r="D901" s="13">
-        <v>0</v>
+      <c r="D901" s="25">
+        <v>110103</v>
       </c>
       <c r="E901" s="14">
         <v>1</v>
@@ -29806,8 +29806,8 @@
       <c r="C902" s="25">
         <v>110103</v>
       </c>
-      <c r="D902" s="13">
-        <v>0</v>
+      <c r="D902" s="25">
+        <v>110104</v>
       </c>
       <c r="E902" s="14">
         <v>1</v>
@@ -29833,8 +29833,8 @@
       <c r="C903" s="25">
         <v>110104</v>
       </c>
-      <c r="D903" s="13">
-        <v>0</v>
+      <c r="D903" s="25">
+        <v>110105</v>
       </c>
       <c r="E903" s="14">
         <v>1</v>
@@ -29860,8 +29860,8 @@
       <c r="C904" s="25">
         <v>110105</v>
       </c>
-      <c r="D904" s="13">
-        <v>0</v>
+      <c r="D904" s="25">
+        <v>110106</v>
       </c>
       <c r="E904" s="14">
         <v>1</v>
@@ -29887,8 +29887,8 @@
       <c r="C905" s="25">
         <v>110106</v>
       </c>
-      <c r="D905" s="13">
-        <v>0</v>
+      <c r="D905" s="25">
+        <v>110107</v>
       </c>
       <c r="E905" s="14">
         <v>1</v>
@@ -29914,8 +29914,8 @@
       <c r="C906" s="25">
         <v>110107</v>
       </c>
-      <c r="D906" s="13">
-        <v>0</v>
+      <c r="D906" s="25">
+        <v>110108</v>
       </c>
       <c r="E906" s="14">
         <v>1</v>
@@ -29941,8 +29941,8 @@
       <c r="C907" s="25">
         <v>110108</v>
       </c>
-      <c r="D907" s="13">
-        <v>0</v>
+      <c r="D907" s="25">
+        <v>110109</v>
       </c>
       <c r="E907" s="14">
         <v>1</v>
@@ -29968,8 +29968,8 @@
       <c r="C908" s="25">
         <v>110109</v>
       </c>
-      <c r="D908" s="13">
-        <v>0</v>
+      <c r="D908" s="25">
+        <v>110201</v>
       </c>
       <c r="E908" s="14">
         <v>1</v>
@@ -29995,8 +29995,8 @@
       <c r="C909" s="25">
         <v>110201</v>
       </c>
-      <c r="D909" s="13">
-        <v>0</v>
+      <c r="D909" s="25">
+        <v>110202</v>
       </c>
       <c r="E909" s="14">
         <v>1</v>
@@ -30022,8 +30022,8 @@
       <c r="C910" s="25">
         <v>110202</v>
       </c>
-      <c r="D910" s="13">
-        <v>0</v>
+      <c r="D910" s="25">
+        <v>110203</v>
       </c>
       <c r="E910" s="14">
         <v>1</v>
@@ -30049,8 +30049,8 @@
       <c r="C911" s="25">
         <v>110203</v>
       </c>
-      <c r="D911" s="13">
-        <v>0</v>
+      <c r="D911" s="25">
+        <v>110204</v>
       </c>
       <c r="E911" s="14">
         <v>1</v>
@@ -30076,8 +30076,8 @@
       <c r="C912" s="25">
         <v>110204</v>
       </c>
-      <c r="D912" s="13">
-        <v>0</v>
+      <c r="D912" s="25">
+        <v>110205</v>
       </c>
       <c r="E912" s="14">
         <v>1</v>
@@ -30103,8 +30103,8 @@
       <c r="C913" s="25">
         <v>110205</v>
       </c>
-      <c r="D913" s="13">
-        <v>0</v>
+      <c r="D913" s="25">
+        <v>110206</v>
       </c>
       <c r="E913" s="14">
         <v>1</v>
@@ -30130,8 +30130,8 @@
       <c r="C914" s="25">
         <v>110206</v>
       </c>
-      <c r="D914" s="13">
-        <v>0</v>
+      <c r="D914" s="25">
+        <v>110207</v>
       </c>
       <c r="E914" s="14">
         <v>1</v>
@@ -30157,8 +30157,8 @@
       <c r="C915" s="25">
         <v>110207</v>
       </c>
-      <c r="D915" s="13">
-        <v>0</v>
+      <c r="D915" s="25">
+        <v>110208</v>
       </c>
       <c r="E915" s="14">
         <v>1</v>
@@ -30184,8 +30184,8 @@
       <c r="C916" s="25">
         <v>110208</v>
       </c>
-      <c r="D916" s="13">
-        <v>0</v>
+      <c r="D916" s="25">
+        <v>110209</v>
       </c>
       <c r="E916" s="14">
         <v>1</v>
@@ -30211,8 +30211,8 @@
       <c r="C917" s="25">
         <v>110209</v>
       </c>
-      <c r="D917" s="13">
-        <v>0</v>
+      <c r="D917" s="25">
+        <v>110301</v>
       </c>
       <c r="E917" s="14">
         <v>1</v>
@@ -30238,8 +30238,8 @@
       <c r="C918" s="25">
         <v>110301</v>
       </c>
-      <c r="D918" s="13">
-        <v>0</v>
+      <c r="D918" s="25">
+        <v>110302</v>
       </c>
       <c r="E918" s="14">
         <v>1</v>
@@ -30265,8 +30265,8 @@
       <c r="C919" s="25">
         <v>110302</v>
       </c>
-      <c r="D919" s="13">
-        <v>0</v>
+      <c r="D919" s="25">
+        <v>110303</v>
       </c>
       <c r="E919" s="14">
         <v>1</v>
@@ -30292,8 +30292,8 @@
       <c r="C920" s="25">
         <v>110303</v>
       </c>
-      <c r="D920" s="13">
-        <v>0</v>
+      <c r="D920" s="25">
+        <v>110304</v>
       </c>
       <c r="E920" s="14">
         <v>1</v>
@@ -30319,8 +30319,8 @@
       <c r="C921" s="25">
         <v>110304</v>
       </c>
-      <c r="D921" s="13">
-        <v>0</v>
+      <c r="D921" s="25">
+        <v>110305</v>
       </c>
       <c r="E921" s="14">
         <v>1</v>
@@ -30346,8 +30346,8 @@
       <c r="C922" s="25">
         <v>110305</v>
       </c>
-      <c r="D922" s="13">
-        <v>0</v>
+      <c r="D922" s="25">
+        <v>110306</v>
       </c>
       <c r="E922" s="14">
         <v>1</v>
@@ -30373,8 +30373,8 @@
       <c r="C923" s="25">
         <v>110306</v>
       </c>
-      <c r="D923" s="13">
-        <v>0</v>
+      <c r="D923" s="25">
+        <v>110307</v>
       </c>
       <c r="E923" s="14">
         <v>1</v>
@@ -30400,8 +30400,8 @@
       <c r="C924" s="25">
         <v>110307</v>
       </c>
-      <c r="D924" s="13">
-        <v>0</v>
+      <c r="D924" s="25">
+        <v>110308</v>
       </c>
       <c r="E924" s="14">
         <v>1</v>
@@ -30427,8 +30427,8 @@
       <c r="C925" s="25">
         <v>110308</v>
       </c>
-      <c r="D925" s="13">
-        <v>0</v>
+      <c r="D925" s="25">
+        <v>110309</v>
       </c>
       <c r="E925" s="14">
         <v>1</v>
@@ -30454,8 +30454,8 @@
       <c r="C926" s="25">
         <v>110309</v>
       </c>
-      <c r="D926" s="13">
-        <v>0</v>
+      <c r="D926" s="25">
+        <v>110401</v>
       </c>
       <c r="E926" s="14">
         <v>1</v>
@@ -30481,8 +30481,8 @@
       <c r="C927" s="25">
         <v>110401</v>
       </c>
-      <c r="D927" s="13">
-        <v>0</v>
+      <c r="D927" s="25">
+        <v>110402</v>
       </c>
       <c r="E927" s="14">
         <v>1</v>
@@ -30508,8 +30508,8 @@
       <c r="C928" s="25">
         <v>110402</v>
       </c>
-      <c r="D928" s="13">
-        <v>0</v>
+      <c r="D928" s="25">
+        <v>110403</v>
       </c>
       <c r="E928" s="14">
         <v>1</v>
@@ -30535,8 +30535,8 @@
       <c r="C929" s="25">
         <v>110403</v>
       </c>
-      <c r="D929" s="13">
-        <v>0</v>
+      <c r="D929" s="25">
+        <v>110404</v>
       </c>
       <c r="E929" s="14">
         <v>1</v>
@@ -30562,8 +30562,8 @@
       <c r="C930" s="25">
         <v>110404</v>
       </c>
-      <c r="D930" s="13">
-        <v>0</v>
+      <c r="D930" s="25">
+        <v>110405</v>
       </c>
       <c r="E930" s="14">
         <v>1</v>
@@ -30589,8 +30589,8 @@
       <c r="C931" s="25">
         <v>110405</v>
       </c>
-      <c r="D931" s="13">
-        <v>0</v>
+      <c r="D931" s="25">
+        <v>110406</v>
       </c>
       <c r="E931" s="14">
         <v>1</v>
@@ -30616,8 +30616,8 @@
       <c r="C932" s="25">
         <v>110406</v>
       </c>
-      <c r="D932" s="13">
-        <v>0</v>
+      <c r="D932" s="25">
+        <v>110407</v>
       </c>
       <c r="E932" s="14">
         <v>1</v>
@@ -30643,8 +30643,8 @@
       <c r="C933" s="25">
         <v>110407</v>
       </c>
-      <c r="D933" s="13">
-        <v>0</v>
+      <c r="D933" s="25">
+        <v>110408</v>
       </c>
       <c r="E933" s="14">
         <v>1</v>
@@ -30670,8 +30670,8 @@
       <c r="C934" s="25">
         <v>110408</v>
       </c>
-      <c r="D934" s="13">
-        <v>0</v>
+      <c r="D934" s="25">
+        <v>110409</v>
       </c>
       <c r="E934" s="14">
         <v>1</v>
@@ -30697,8 +30697,8 @@
       <c r="C935" s="25">
         <v>110409</v>
       </c>
-      <c r="D935" s="13">
-        <v>0</v>
+      <c r="D935" s="25">
+        <v>110501</v>
       </c>
       <c r="E935" s="14">
         <v>1</v>
@@ -30724,8 +30724,8 @@
       <c r="C936" s="25">
         <v>110501</v>
       </c>
-      <c r="D936" s="13">
-        <v>0</v>
+      <c r="D936" s="25">
+        <v>110502</v>
       </c>
       <c r="E936" s="14">
         <v>1</v>
@@ -30751,8 +30751,8 @@
       <c r="C937" s="25">
         <v>110502</v>
       </c>
-      <c r="D937" s="13">
-        <v>0</v>
+      <c r="D937" s="25">
+        <v>110503</v>
       </c>
       <c r="E937" s="14">
         <v>1</v>
@@ -30778,8 +30778,8 @@
       <c r="C938" s="25">
         <v>110503</v>
       </c>
-      <c r="D938" s="13">
-        <v>0</v>
+      <c r="D938" s="25">
+        <v>110504</v>
       </c>
       <c r="E938" s="14">
         <v>1</v>
@@ -30805,8 +30805,8 @@
       <c r="C939" s="25">
         <v>110504</v>
       </c>
-      <c r="D939" s="13">
-        <v>0</v>
+      <c r="D939" s="25">
+        <v>110505</v>
       </c>
       <c r="E939" s="14">
         <v>1</v>
@@ -30832,8 +30832,8 @@
       <c r="C940" s="25">
         <v>110505</v>
       </c>
-      <c r="D940" s="13">
-        <v>0</v>
+      <c r="D940" s="25">
+        <v>110506</v>
       </c>
       <c r="E940" s="14">
         <v>1</v>
@@ -30859,8 +30859,8 @@
       <c r="C941" s="25">
         <v>110506</v>
       </c>
-      <c r="D941" s="13">
-        <v>0</v>
+      <c r="D941" s="25">
+        <v>110507</v>
       </c>
       <c r="E941" s="14">
         <v>1</v>
@@ -30886,8 +30886,8 @@
       <c r="C942" s="25">
         <v>110507</v>
       </c>
-      <c r="D942" s="13">
-        <v>0</v>
+      <c r="D942" s="25">
+        <v>110508</v>
       </c>
       <c r="E942" s="14">
         <v>1</v>
@@ -30913,8 +30913,8 @@
       <c r="C943" s="25">
         <v>110508</v>
       </c>
-      <c r="D943" s="13">
-        <v>0</v>
+      <c r="D943" s="25">
+        <v>110509</v>
       </c>
       <c r="E943" s="14">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F4381-BDBA-44C6-A481-597E8ABA109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD0EF3-29A7-488D-A9EF-220282FF8F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4840,9 +4840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:K1243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F936" sqref="F936"/>
+      <selection pane="topRight" activeCell="G941" sqref="G941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29765,10 +29765,10 @@
         <v>760101</v>
       </c>
       <c r="H900" s="26">
+        <v>12</v>
+      </c>
+      <c r="I900" s="26">
         <v>5</v>
-      </c>
-      <c r="I900" s="26">
-        <v>3</v>
       </c>
       <c r="J900" s="26">
         <v>0</v>
@@ -29792,10 +29792,10 @@
         <v>760102</v>
       </c>
       <c r="H901" s="26">
+        <v>12</v>
+      </c>
+      <c r="I901" s="26">
         <v>5</v>
-      </c>
-      <c r="I901" s="26">
-        <v>3</v>
       </c>
       <c r="J901" s="26">
         <v>0</v>
@@ -29819,10 +29819,10 @@
         <v>760101</v>
       </c>
       <c r="H902" s="26">
+        <v>12</v>
+      </c>
+      <c r="I902" s="26">
         <v>5</v>
-      </c>
-      <c r="I902" s="26">
-        <v>3</v>
       </c>
       <c r="J902" s="26">
         <v>0</v>
@@ -29846,10 +29846,10 @@
         <v>760102</v>
       </c>
       <c r="H903" s="26">
+        <v>12</v>
+      </c>
+      <c r="I903" s="26">
         <v>5</v>
-      </c>
-      <c r="I903" s="26">
-        <v>3</v>
       </c>
       <c r="J903" s="26">
         <v>0</v>
@@ -29873,10 +29873,10 @@
         <v>760101</v>
       </c>
       <c r="H904" s="26">
+        <v>12</v>
+      </c>
+      <c r="I904" s="26">
         <v>5</v>
-      </c>
-      <c r="I904" s="26">
-        <v>3</v>
       </c>
       <c r="J904" s="26">
         <v>0</v>
@@ -29900,10 +29900,10 @@
         <v>760102</v>
       </c>
       <c r="H905" s="26">
+        <v>12</v>
+      </c>
+      <c r="I905" s="26">
         <v>5</v>
-      </c>
-      <c r="I905" s="26">
-        <v>3</v>
       </c>
       <c r="J905" s="26">
         <v>0</v>
@@ -29927,10 +29927,10 @@
         <v>760101</v>
       </c>
       <c r="H906" s="26">
+        <v>12</v>
+      </c>
+      <c r="I906" s="26">
         <v>5</v>
-      </c>
-      <c r="I906" s="26">
-        <v>3</v>
       </c>
       <c r="J906" s="26">
         <v>0</v>
@@ -29954,10 +29954,10 @@
         <v>760102</v>
       </c>
       <c r="H907" s="26">
+        <v>12</v>
+      </c>
+      <c r="I907" s="26">
         <v>5</v>
-      </c>
-      <c r="I907" s="26">
-        <v>3</v>
       </c>
       <c r="J907" s="26">
         <v>0</v>
@@ -29969,7 +29969,7 @@
         <v>110109</v>
       </c>
       <c r="D908" s="25">
-        <v>110201</v>
+        <v>0</v>
       </c>
       <c r="E908" s="14">
         <v>1</v>
@@ -29981,10 +29981,10 @@
         <v>760102</v>
       </c>
       <c r="H908" s="26">
+        <v>12</v>
+      </c>
+      <c r="I908" s="26">
         <v>5</v>
-      </c>
-      <c r="I908" s="26">
-        <v>3</v>
       </c>
       <c r="J908" s="26">
         <v>0</v>
@@ -30008,10 +30008,10 @@
         <v>760201</v>
       </c>
       <c r="H909" s="26">
+        <v>12</v>
+      </c>
+      <c r="I909" s="26">
         <v>5</v>
-      </c>
-      <c r="I909" s="26">
-        <v>3</v>
       </c>
       <c r="J909" s="26">
         <v>0</v>
@@ -30035,10 +30035,10 @@
         <v>760202</v>
       </c>
       <c r="H910" s="26">
+        <v>12</v>
+      </c>
+      <c r="I910" s="26">
         <v>5</v>
-      </c>
-      <c r="I910" s="26">
-        <v>3</v>
       </c>
       <c r="J910" s="26">
         <v>0</v>
@@ -30062,10 +30062,10 @@
         <v>760203</v>
       </c>
       <c r="H911" s="26">
+        <v>12</v>
+      </c>
+      <c r="I911" s="26">
         <v>5</v>
-      </c>
-      <c r="I911" s="26">
-        <v>3</v>
       </c>
       <c r="J911" s="26">
         <v>0</v>
@@ -30089,10 +30089,10 @@
         <v>760201</v>
       </c>
       <c r="H912" s="26">
+        <v>12</v>
+      </c>
+      <c r="I912" s="26">
         <v>5</v>
-      </c>
-      <c r="I912" s="26">
-        <v>3</v>
       </c>
       <c r="J912" s="26">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>760202</v>
       </c>
       <c r="H913" s="26">
+        <v>12</v>
+      </c>
+      <c r="I913" s="26">
         <v>5</v>
-      </c>
-      <c r="I913" s="26">
-        <v>3</v>
       </c>
       <c r="J913" s="26">
         <v>0</v>
@@ -30143,10 +30143,10 @@
         <v>760203</v>
       </c>
       <c r="H914" s="26">
+        <v>12</v>
+      </c>
+      <c r="I914" s="26">
         <v>5</v>
-      </c>
-      <c r="I914" s="26">
-        <v>3</v>
       </c>
       <c r="J914" s="26">
         <v>0</v>
@@ -30170,10 +30170,10 @@
         <v>760201</v>
       </c>
       <c r="H915" s="26">
+        <v>12</v>
+      </c>
+      <c r="I915" s="26">
         <v>5</v>
-      </c>
-      <c r="I915" s="26">
-        <v>3</v>
       </c>
       <c r="J915" s="26">
         <v>0</v>
@@ -30197,10 +30197,10 @@
         <v>760202</v>
       </c>
       <c r="H916" s="26">
+        <v>12</v>
+      </c>
+      <c r="I916" s="26">
         <v>5</v>
-      </c>
-      <c r="I916" s="26">
-        <v>3</v>
       </c>
       <c r="J916" s="26">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>110209</v>
       </c>
       <c r="D917" s="25">
-        <v>110301</v>
+        <v>0</v>
       </c>
       <c r="E917" s="14">
         <v>1</v>
@@ -30224,10 +30224,10 @@
         <v>760203</v>
       </c>
       <c r="H917" s="26">
+        <v>12</v>
+      </c>
+      <c r="I917" s="26">
         <v>5</v>
-      </c>
-      <c r="I917" s="26">
-        <v>3</v>
       </c>
       <c r="J917" s="26">
         <v>0</v>
@@ -30251,10 +30251,10 @@
         <v>760301</v>
       </c>
       <c r="H918" s="26">
+        <v>12</v>
+      </c>
+      <c r="I918" s="26">
         <v>5</v>
-      </c>
-      <c r="I918" s="26">
-        <v>3</v>
       </c>
       <c r="J918" s="26">
         <v>0</v>
@@ -30278,10 +30278,10 @@
         <v>760302</v>
       </c>
       <c r="H919" s="26">
+        <v>12</v>
+      </c>
+      <c r="I919" s="26">
         <v>5</v>
-      </c>
-      <c r="I919" s="26">
-        <v>3</v>
       </c>
       <c r="J919" s="26">
         <v>0</v>
@@ -30305,10 +30305,10 @@
         <v>760303</v>
       </c>
       <c r="H920" s="26">
+        <v>12</v>
+      </c>
+      <c r="I920" s="26">
         <v>5</v>
-      </c>
-      <c r="I920" s="26">
-        <v>3</v>
       </c>
       <c r="J920" s="26">
         <v>0</v>
@@ -30332,10 +30332,10 @@
         <v>760301</v>
       </c>
       <c r="H921" s="26">
+        <v>12</v>
+      </c>
+      <c r="I921" s="26">
         <v>5</v>
-      </c>
-      <c r="I921" s="26">
-        <v>3</v>
       </c>
       <c r="J921" s="26">
         <v>0</v>
@@ -30359,10 +30359,10 @@
         <v>760302</v>
       </c>
       <c r="H922" s="26">
+        <v>12</v>
+      </c>
+      <c r="I922" s="26">
         <v>5</v>
-      </c>
-      <c r="I922" s="26">
-        <v>3</v>
       </c>
       <c r="J922" s="26">
         <v>0</v>
@@ -30386,10 +30386,10 @@
         <v>760303</v>
       </c>
       <c r="H923" s="26">
+        <v>12</v>
+      </c>
+      <c r="I923" s="26">
         <v>5</v>
-      </c>
-      <c r="I923" s="26">
-        <v>3</v>
       </c>
       <c r="J923" s="26">
         <v>0</v>
@@ -30413,10 +30413,10 @@
         <v>760301</v>
       </c>
       <c r="H924" s="26">
+        <v>12</v>
+      </c>
+      <c r="I924" s="26">
         <v>5</v>
-      </c>
-      <c r="I924" s="26">
-        <v>3</v>
       </c>
       <c r="J924" s="26">
         <v>0</v>
@@ -30440,10 +30440,10 @@
         <v>760302</v>
       </c>
       <c r="H925" s="26">
+        <v>12</v>
+      </c>
+      <c r="I925" s="26">
         <v>5</v>
-      </c>
-      <c r="I925" s="26">
-        <v>3</v>
       </c>
       <c r="J925" s="26">
         <v>0</v>
@@ -30455,7 +30455,7 @@
         <v>110309</v>
       </c>
       <c r="D926" s="25">
-        <v>110401</v>
+        <v>0</v>
       </c>
       <c r="E926" s="14">
         <v>1</v>
@@ -30467,10 +30467,10 @@
         <v>760303</v>
       </c>
       <c r="H926" s="26">
+        <v>12</v>
+      </c>
+      <c r="I926" s="26">
         <v>5</v>
-      </c>
-      <c r="I926" s="26">
-        <v>3</v>
       </c>
       <c r="J926" s="26">
         <v>0</v>
@@ -30494,10 +30494,10 @@
         <v>760401</v>
       </c>
       <c r="H927" s="26">
+        <v>12</v>
+      </c>
+      <c r="I927" s="26">
         <v>5</v>
-      </c>
-      <c r="I927" s="26">
-        <v>3</v>
       </c>
       <c r="J927" s="26">
         <v>0</v>
@@ -30521,10 +30521,10 @@
         <v>760402</v>
       </c>
       <c r="H928" s="26">
+        <v>12</v>
+      </c>
+      <c r="I928" s="26">
         <v>5</v>
-      </c>
-      <c r="I928" s="26">
-        <v>3</v>
       </c>
       <c r="J928" s="26">
         <v>0</v>
@@ -30548,10 +30548,10 @@
         <v>760403</v>
       </c>
       <c r="H929" s="26">
+        <v>12</v>
+      </c>
+      <c r="I929" s="26">
         <v>5</v>
-      </c>
-      <c r="I929" s="26">
-        <v>3</v>
       </c>
       <c r="J929" s="26">
         <v>0</v>
@@ -30575,10 +30575,10 @@
         <v>760401</v>
       </c>
       <c r="H930" s="26">
+        <v>12</v>
+      </c>
+      <c r="I930" s="26">
         <v>5</v>
-      </c>
-      <c r="I930" s="26">
-        <v>3</v>
       </c>
       <c r="J930" s="26">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>760402</v>
       </c>
       <c r="H931" s="26">
+        <v>12</v>
+      </c>
+      <c r="I931" s="26">
         <v>5</v>
-      </c>
-      <c r="I931" s="26">
-        <v>3</v>
       </c>
       <c r="J931" s="26">
         <v>0</v>
@@ -30629,10 +30629,10 @@
         <v>760403</v>
       </c>
       <c r="H932" s="26">
+        <v>12</v>
+      </c>
+      <c r="I932" s="26">
         <v>5</v>
-      </c>
-      <c r="I932" s="26">
-        <v>3</v>
       </c>
       <c r="J932" s="26">
         <v>0</v>
@@ -30656,10 +30656,10 @@
         <v>760401</v>
       </c>
       <c r="H933" s="26">
+        <v>12</v>
+      </c>
+      <c r="I933" s="26">
         <v>5</v>
-      </c>
-      <c r="I933" s="26">
-        <v>3</v>
       </c>
       <c r="J933" s="26">
         <v>0</v>
@@ -30683,10 +30683,10 @@
         <v>760402</v>
       </c>
       <c r="H934" s="26">
+        <v>12</v>
+      </c>
+      <c r="I934" s="26">
         <v>5</v>
-      </c>
-      <c r="I934" s="26">
-        <v>3</v>
       </c>
       <c r="J934" s="26">
         <v>0</v>
@@ -30698,7 +30698,7 @@
         <v>110409</v>
       </c>
       <c r="D935" s="25">
-        <v>110501</v>
+        <v>0</v>
       </c>
       <c r="E935" s="14">
         <v>1</v>
@@ -30710,10 +30710,10 @@
         <v>760403</v>
       </c>
       <c r="H935" s="26">
+        <v>12</v>
+      </c>
+      <c r="I935" s="26">
         <v>5</v>
-      </c>
-      <c r="I935" s="26">
-        <v>3</v>
       </c>
       <c r="J935" s="26">
         <v>0</v>
@@ -30737,10 +30737,10 @@
         <v>760501</v>
       </c>
       <c r="H936" s="26">
+        <v>12</v>
+      </c>
+      <c r="I936" s="26">
         <v>5</v>
-      </c>
-      <c r="I936" s="26">
-        <v>3</v>
       </c>
       <c r="J936" s="26">
         <v>0</v>
@@ -30764,10 +30764,10 @@
         <v>760502</v>
       </c>
       <c r="H937" s="26">
+        <v>12</v>
+      </c>
+      <c r="I937" s="26">
         <v>5</v>
-      </c>
-      <c r="I937" s="26">
-        <v>3</v>
       </c>
       <c r="J937" s="26">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>760503</v>
       </c>
       <c r="H938" s="26">
+        <v>12</v>
+      </c>
+      <c r="I938" s="26">
         <v>5</v>
-      </c>
-      <c r="I938" s="26">
-        <v>3</v>
       </c>
       <c r="J938" s="26">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>760501</v>
       </c>
       <c r="H939" s="26">
+        <v>12</v>
+      </c>
+      <c r="I939" s="26">
         <v>5</v>
-      </c>
-      <c r="I939" s="26">
-        <v>3</v>
       </c>
       <c r="J939" s="26">
         <v>0</v>
@@ -30845,10 +30845,10 @@
         <v>760502</v>
       </c>
       <c r="H940" s="26">
+        <v>12</v>
+      </c>
+      <c r="I940" s="26">
         <v>5</v>
-      </c>
-      <c r="I940" s="26">
-        <v>3</v>
       </c>
       <c r="J940" s="26">
         <v>0</v>
@@ -30872,10 +30872,10 @@
         <v>760503</v>
       </c>
       <c r="H941" s="26">
+        <v>12</v>
+      </c>
+      <c r="I941" s="26">
         <v>5</v>
-      </c>
-      <c r="I941" s="26">
-        <v>3</v>
       </c>
       <c r="J941" s="26">
         <v>0</v>
@@ -30899,10 +30899,10 @@
         <v>760501</v>
       </c>
       <c r="H942" s="26">
+        <v>12</v>
+      </c>
+      <c r="I942" s="26">
         <v>5</v>
-      </c>
-      <c r="I942" s="26">
-        <v>3</v>
       </c>
       <c r="J942" s="26">
         <v>0</v>
@@ -30926,10 +30926,10 @@
         <v>760502</v>
       </c>
       <c r="H943" s="26">
+        <v>12</v>
+      </c>
+      <c r="I943" s="26">
         <v>5</v>
-      </c>
-      <c r="I943" s="26">
-        <v>3</v>
       </c>
       <c r="J943" s="26">
         <v>0</v>
@@ -30953,10 +30953,10 @@
         <v>760503</v>
       </c>
       <c r="H944" s="26">
+        <v>12</v>
+      </c>
+      <c r="I944" s="26">
         <v>5</v>
-      </c>
-      <c r="I944" s="26">
-        <v>3</v>
       </c>
       <c r="J944" s="26">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MonsterPositionConfig.xlsx
@@ -3808,7 +3808,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="97">
+  <fills count="81">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4183,42 +4183,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399670400097659"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4322,66 +4286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399700918607135"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4763,22 +4667,40 @@
     <xf numFmtId="0" fontId="0" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4817,24 +4739,6 @@
     <xf numFmtId="0" fontId="27" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4844,7 +4748,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -4859,7 +4763,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4868,31 +4772,31 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="96" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5127,7 +5031,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{25306F69-7B14-4C00-978E-F00A28563389}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{BFAECC02-306B-45A0-A813-DD129C3BBDAB}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5429,10 +5333,10 @@
   <sheetPr/>
   <dimension ref="C3:K1243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E582" sqref="E582"/>
+      <selection pane="topRight" activeCell="A1098" sqref="$A1098:$XFD1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
